--- a/public/excel-template/Staff_Template.xlsx
+++ b/public/excel-template/Staff_Template.xlsx
@@ -1,38 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanglx/project/monv10/public/excel-template/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFE15DB-F0A7-4645-A2E1-D09E8D2CF94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Trang tính1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Thông tin tài khoản</t>
   </si>
@@ -83,71 +62,78 @@
   </si>
   <si>
     <t>Nội dung</t>
+  </si>
+  <si>
+    <t>Nhập tên nhân viên</t>
+  </si>
+  <si>
+    <t>Nhập email nhân viên</t>
+  </si>
+  <si>
+    <t>Nhập số điện thoại nhân viên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập thông tin </t>
+  </si>
+  <si>
+    <t>Nam thì để trống, Nữ thì tích dấu "x"</t>
+  </si>
+  <si>
+    <t>Nhập thông tin nếu có (mặc định để trống)</t>
+  </si>
+  <si>
+    <t>Bắt buộc điền
+ Định dạng: dd/mm/yyyy hh:mm
+ Lưu ý gõ dấu 'trước khi điền thông tin để giữ định dạng khi import</t>
+  </si>
+  <si>
+    <t>Nhập tài khoản nhân viên</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="8">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
+    <font/>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -156,7 +142,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -166,36 +152,39 @@
     </fill>
   </fills>
   <borders count="7">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -204,119 +193,88 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+  <cellXfs count="16">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -506,167 +464,158 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="25.1640625" customWidth="1"/>
-    <col min="10" max="11" width="26.5" customWidth="1"/>
+    <col customWidth="1" min="8" max="8" width="17.38"/>
+    <col customWidth="1" min="9" max="9" width="25.13"/>
+    <col customWidth="1" min="10" max="11" width="26.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+    <row r="2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="3">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+    <row r="4">
+      <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="11"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="11"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="11"/>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>